--- a/Technology/Software/Roper Technologies.xlsx
+++ b/Technology/Software/Roper Technologies.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6916E88-BD50-824E-8B94-BA19EB1A3EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E3E70D-15F8-1F4A-8B48-DAEB7B6F5332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2811,6 +2811,7 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Watchlist"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -2828,7 +2829,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8750000000000002E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2839,6 +2840,7 @@
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2964,13 +2966,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>508.9</v>
-    <v>388.66</v>
+    <v>513.45000000000005</v>
+    <v>413.90499999999997</v>
     <v>1.0158</v>
-    <v>6.9</v>
-    <v>1.4164000000000001E-2</v>
-    <v>0</v>
-    <v>0</v>
+    <v>-1.32</v>
+    <v>-2.5829999999999998E-3</v>
+    <v>4.09</v>
+    <v>8.0239999999999999E-3</v>
     <v>USD</v>
     <v>Roper Technologies, Inc. is a diversified technology company. The Company operates businesses that design and develop vertical software and technology enabled products for a variety of defensible niche markets. The Company operates through three segments: Application Software, Network Software and Technology Enabled Products. The Application Software segment includes Aderant, CBORD/Horizon, CliniSys, Data Innovations, Deltek, Frontline Education, IntelliTrans, PowerPlan, Strata, Vertafore. The Network Software segment includes ConstructConnect, DAT, Foundry, iPipeline, iTradeNetwork, Loadlink, MHA, SHP, SoftWriters. The Technology Enabled Products segment includes CIVCO Medical Solutions, FMI, Inovonics, IPA, Neptune, Northern Digital, rf IDEAS, Verathon. Aderant is a comprehensive management software solution for law and other professional services firms, including business development, calendar/docket matter management and others. CBORD/Horizon is a campus solutions software.</v>
     <v>15800</v>
@@ -2978,25 +2980,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>6496 University Parkway, SARASOTA, FL, 34240 US</v>
-    <v>495</v>
+    <v>513.45000000000005</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45232.993829640625</v>
+    <v>45239.932130635934</v>
     <v>0</v>
-    <v>486.82</v>
-    <v>52720520145</v>
+    <v>508.07</v>
+    <v>54451497254</v>
     <v>ROPER TECHNOLOGIES, INC.</v>
     <v>ROPER TECHNOLOGIES, INC.</v>
-    <v>487.37</v>
-    <v>42.790700000000001</v>
-    <v>487.15</v>
-    <v>494.05</v>
-    <v>494.05</v>
-    <v>106710900</v>
+    <v>511</v>
+    <v>44.264000000000003</v>
+    <v>511.06</v>
+    <v>509.74</v>
+    <v>513.83000000000004</v>
+    <v>106822100</v>
     <v>ROP</v>
     <v>ROPER TECHNOLOGIES, INC. (XNAS:ROP)</v>
-    <v>722777</v>
-    <v>440369</v>
+    <v>350139</v>
+    <v>475512</v>
     <v>1981</v>
   </rv>
   <rv s="2">
@@ -3161,9 +3163,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3584,10 +3586,10 @@
   <dimension ref="A1:AP119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AD88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Z85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AJ95" sqref="AJ95"/>
+      <selection pane="bottomRight" activeCell="AI129" sqref="AI129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5500,15 +5502,15 @@
       </c>
       <c r="AN16" s="31">
         <f>AO102/AG3</f>
-        <v>9.814311803306154</v>
+        <v>10.136545897836852</v>
       </c>
       <c r="AO16" s="31">
         <f>AO102/AG28</f>
-        <v>34.129941182753932</v>
+        <v>35.250532306596753</v>
       </c>
       <c r="AP16" s="33">
         <f>AO102/AG107</f>
-        <v>79.362517153394549</v>
+        <v>81.968233108535301</v>
       </c>
     </row>
     <row r="17" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -5846,15 +5848,15 @@
       </c>
       <c r="AN19" s="31">
         <f>AO102/AH3</f>
-        <v>8.7227862582726665</v>
+        <v>9.0091822061548648</v>
       </c>
       <c r="AO19" s="32">
         <f>AI117/AH31</f>
-        <v>30.217125382262996</v>
+        <v>31.176758409785929</v>
       </c>
       <c r="AP19" s="33">
         <f>AO102/AH107</f>
-        <v>24.635757077102802</v>
+        <v>25.444624885046728</v>
       </c>
     </row>
     <row r="20" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6244,11 +6246,11 @@
       </c>
       <c r="AO22" s="35">
         <f>(-1*AG98)/AO102</f>
-        <v>4.9752923392747759E-3</v>
+        <v>4.8171310841361942E-3</v>
       </c>
       <c r="AP22" s="36">
         <f>AH107/AO102</f>
-        <v>4.0591405284209001E-2</v>
+        <v>3.9301031338358577E-2</v>
       </c>
     </row>
     <row r="23" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -7464,7 +7466,7 @@
       </c>
       <c r="AH33" s="1" cm="1">
         <f t="array" ref="AH33">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>106710900</v>
+        <v>106822100</v>
       </c>
     </row>
     <row r="34" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -7569,7 +7571,7 @@
       </c>
       <c r="AH34" s="1" cm="1">
         <f t="array" ref="AH34">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>106710900</v>
+        <v>106822100</v>
       </c>
     </row>
     <row r="35" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -7703,7 +7705,7 @@
       </c>
       <c r="AH35" s="22">
         <f t="shared" si="7"/>
-        <v>-8.3426966292134835E-4</v>
+        <v>2.0692883895131087E-4</v>
       </c>
     </row>
     <row r="36" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -13974,7 +13976,7 @@
       </c>
       <c r="AO95" s="68">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8750000000000002E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -14315,7 +14317,7 @@
       </c>
       <c r="AO98" s="46">
         <f>(AO95)+((AO96)*(AO97-AO95))</f>
-        <v>8.4556950000000006E-2</v>
+        <v>8.4604982000000009E-2</v>
       </c>
     </row>
     <row r="99" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14654,7 +14656,7 @@
       </c>
       <c r="AO101" s="46">
         <f>AO100/AO104</f>
-        <v>0.11218341085485529</v>
+        <v>0.1090059152413921</v>
       </c>
     </row>
     <row r="102" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -14768,7 +14770,7 @@
       </c>
       <c r="AO102" s="49" cm="1">
         <f t="array" ref="AO102">_FV(A1,"Market cap",TRUE)</f>
-        <v>52720520145</v>
+        <v>54451497254</v>
       </c>
     </row>
     <row r="103" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -14882,7 +14884,7 @@
       </c>
       <c r="AO103" s="46">
         <f>AO102/AO104</f>
-        <v>0.88781658914514472</v>
+        <v>0.89099408475860786</v>
       </c>
     </row>
     <row r="104" spans="1:41" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14998,7 +15000,7 @@
       </c>
       <c r="AO104" s="50">
         <f>AO100+AO102</f>
-        <v>59382220145</v>
+        <v>61113197254</v>
       </c>
     </row>
     <row r="105" spans="1:41" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -15319,7 +15321,7 @@
       </c>
       <c r="AO106" s="53">
         <f>(AO101*AO93)+(AO103*AO98)</f>
-        <v>7.7561991695552376E-2</v>
+        <v>7.7802913913356142E-2</v>
       </c>
     </row>
     <row r="107" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -15488,7 +15490,7 @@
       <c r="AK108" s="71"/>
       <c r="AL108" s="56">
         <f>AL107*(1+AO108)/(AO109-AO108)</f>
-        <v>70222319987.016815</v>
+        <v>69901918785.32634</v>
       </c>
       <c r="AM108" s="57" t="s">
         <v>153</v>
@@ -15519,7 +15521,7 @@
       </c>
       <c r="AL109" s="56">
         <f>AL108+AL107</f>
-        <v>73823319987.016815</v>
+        <v>73502918785.32634</v>
       </c>
       <c r="AM109" s="57" t="s">
         <v>151</v>
@@ -15529,7 +15531,7 @@
       </c>
       <c r="AO109" s="24">
         <f>AO106</f>
-        <v>7.7561991695552376E-2</v>
+        <v>7.7802913913356142E-2</v>
       </c>
     </row>
     <row r="110" spans="1:41" ht="19" x14ac:dyDescent="0.2">
@@ -15550,7 +15552,7 @@
       </c>
       <c r="AI111" s="49">
         <f>NPV(AO109,AH109,AI109,AJ109,AK109,AL109)</f>
-        <v>58959696040.356575</v>
+        <v>58677971009.302773</v>
       </c>
       <c r="AJ111" s="44"/>
       <c r="AK111" s="44"/>
@@ -15595,7 +15597,7 @@
       </c>
       <c r="AI114" s="49">
         <f>AI111+AI112-AI113</f>
-        <v>53090796040.356575</v>
+        <v>52809071009.302773</v>
       </c>
       <c r="AJ114" s="44"/>
       <c r="AK114" s="44"/>
@@ -15625,7 +15627,7 @@
       </c>
       <c r="AI116" s="62">
         <f>AI114/AI115</f>
-        <v>482.01677630742523</v>
+        <v>479.45896588826258</v>
       </c>
       <c r="AJ116" s="44"/>
       <c r="AK116" s="44"/>
@@ -15640,7 +15642,7 @@
       </c>
       <c r="AI117" s="63" cm="1">
         <f t="array" ref="AI117">_FV(A1,"Price",TRUE)</f>
-        <v>494.05</v>
+        <v>509.74</v>
       </c>
       <c r="AJ117" s="44"/>
       <c r="AK117" s="44"/>
@@ -15655,7 +15657,7 @@
       </c>
       <c r="AI118" s="64">
         <f>(AI116/AI117)-1</f>
-        <v>-2.4356287202863647E-2</v>
+        <v>-5.9404861521044849E-2</v>
       </c>
       <c r="AJ118" s="44"/>
       <c r="AK118" s="44"/>

--- a/Technology/Software/Roper Technologies.xlsx
+++ b/Technology/Software/Roper Technologies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E403075-2D8D-7C41-8220-ED144FFB5FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AFE51C-3222-014B-858E-FA9A9DB0B4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1755,6 +1755,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1774,7 +1776,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1787,6 +1789,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1912,13 +1916,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>540.85500000000002</v>
+    <v>542.04499999999996</v>
     <v>416.77499999999998</v>
-    <v>1.0118</v>
-    <v>2.33</v>
-    <v>4.3290000000000004E-3</v>
-    <v>0</v>
-    <v>0</v>
+    <v>1.0124</v>
+    <v>1.8</v>
+    <v>3.3660000000000001E-3</v>
+    <v>0.3</v>
+    <v>5.5909999999999998E-4</v>
     <v>USD</v>
     <v>Roper Technologies, Inc. is a diversified technology company. The Company operates businesses that design and develop vertical software and technology enabled products for a variety of defensible niche markets. The Company operates through three segments: Application Software, Network Software and Technology Enabled Products. The Application Software segment includes Aderant, CBORD/Horizon, CliniSys, Data Innovations, Deltek, Frontline Education, IntelliTrans, PowerPlan, Strata, Vertafore. The Network Software segment includes ConstructConnect, DAT, Foundry, iPipeline, iTradeNetwork, Loadlink, MHA, SHP, SoftWriters. The Technology Enabled Products segment includes CIVCO Medical Solutions, FMI, Inovonics, IPA, Neptune, Northern Digital, rf IDEAS, Verathon. Aderant is a comprehensive management software solution for law and other professional services firms, including business development, calendar/docket matter management and others. CBORD/Horizon is a campus solutions software.</v>
     <v>15800</v>
@@ -1926,25 +1930,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>6496 University Parkway, SARASOTA, FL, 34240 US</v>
-    <v>540.85500000000002</v>
+    <v>537.58000000000004</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45261.891633807812</v>
+    <v>45269.029003032032</v>
     <v>0</v>
-    <v>533.64</v>
-    <v>57745900000</v>
+    <v>531.71</v>
+    <v>57320738860</v>
     <v>ROPER TECHNOLOGIES, INC.</v>
     <v>ROPER TECHNOLOGIES, INC.</v>
-    <v>538.25</v>
-    <v>46.619</v>
-    <v>538.25</v>
-    <v>540.58000000000004</v>
-    <v>540.58000000000004</v>
+    <v>533.45000000000005</v>
+    <v>46.3202</v>
+    <v>534.79999999999995</v>
+    <v>536.6</v>
+    <v>536.9</v>
     <v>106822100</v>
     <v>ROP</v>
     <v>ROPER TECHNOLOGIES, INC. (XNAS:ROP)</v>
-    <v>608553</v>
-    <v>519694</v>
+    <v>394042</v>
+    <v>489090</v>
     <v>1981</v>
   </rv>
   <rv s="2">
@@ -2556,7 +2560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S196"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
+    <sheetView topLeftCell="A111" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="J180" sqref="J180"/>
     </sheetView>
@@ -14058,7 +14062,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14111,7 +14115,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>57745900000</v>
+        <v>57320738860</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>202</v>
@@ -14131,22 +14135,22 @@
         <v>204</v>
       </c>
       <c r="G3" s="40">
-        <f>AVERAGE(Financials!N129:S129)</f>
-        <v>1.9124861396637531E-3</v>
+        <f>AVERAGE(Financials!J129:O129)</f>
+        <v>6.744964027253479E-3</v>
       </c>
       <c r="H3" s="39" t="s">
         <v>205</v>
       </c>
       <c r="I3" s="100">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>60645189806.082954</v>
+        <v>60281186006.290779</v>
       </c>
       <c r="J3" s="41" t="s">
         <v>206</v>
       </c>
       <c r="K3" s="104">
         <f>(Financials!O172*-1)/Model!A3</f>
-        <v>4.7864870060038891E-3</v>
+        <v>4.8219894840343652E-3</v>
       </c>
       <c r="L3" s="42" t="s">
         <v>207</v>
@@ -14184,21 +14188,21 @@
       </c>
       <c r="G4" s="47">
         <f>A5*(1+(5*G3))</f>
-        <v>107843578.92829889</v>
+        <v>110424656.10907838</v>
       </c>
       <c r="H4" s="46" t="s">
         <v>212</v>
       </c>
       <c r="I4" s="101">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>50183382333.885498</v>
+        <v>49864280016.398949</v>
       </c>
       <c r="J4" s="46" t="s">
         <v>213</v>
       </c>
       <c r="K4" s="102" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>4.3290000000000004E-3</v>
+        <v>3.3660000000000001E-3</v>
       </c>
       <c r="L4" s="48" t="s">
         <v>214</v>
@@ -14243,14 +14247,14 @@
       </c>
       <c r="I5" s="101">
         <f>I4+G5-G6</f>
-        <v>44980082333.885498</v>
+        <v>44660980016.398949</v>
       </c>
       <c r="J5" s="46" t="s">
         <v>220</v>
       </c>
       <c r="K5" s="105" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>540.58000000000004</v>
+        <v>536.6</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>221</v>
@@ -14270,7 +14274,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="53">
         <f>O20/F10</f>
-        <v>9.4018072289156631</v>
+        <v>9.3325852914360148</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>223</v>
@@ -14298,14 +14302,14 @@
       </c>
       <c r="I6" s="102">
         <f>N25</f>
-        <v>8.956406538622555E-2</v>
+        <v>8.9953931058877779E-2</v>
       </c>
       <c r="J6" s="46" t="s">
         <v>226</v>
       </c>
       <c r="K6" s="106">
         <f>I5/G4</f>
-        <v>417.08632800281089</v>
+        <v>404.44753545152514</v>
       </c>
       <c r="L6" s="54" t="s">
         <v>227</v>
@@ -14325,14 +14329,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <f>O20/F12</f>
-        <v>32.260279329608942</v>
+        <v>32.022759139664807</v>
       </c>
       <c r="B7" s="56" t="s">
         <v>229</v>
       </c>
       <c r="C7" s="98">
         <f>F15/A3</f>
-        <v>3.8357701585740284E-2</v>
+        <v>3.8642209504834005E-2</v>
       </c>
       <c r="D7" s="56" t="s">
         <v>230</v>
@@ -14359,7 +14363,7 @@
       </c>
       <c r="K7" s="107">
         <f>K6/K5-1</f>
-        <v>-0.22844661659178866</v>
+        <v>-0.24627742181974444</v>
       </c>
       <c r="L7" s="60" t="s">
         <v>233</v>
@@ -14686,7 +14690,7 @@
       </c>
       <c r="O14" s="76">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="43"/>
       <c r="Q14" s="43"/>
@@ -14838,7 +14842,7 @@
       </c>
       <c r="O17" s="86">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.762570000000001E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="43"/>
       <c r="Q17" s="43"/>
@@ -14921,7 +14925,7 @@
       </c>
       <c r="O20" s="92">
         <f>A3</f>
-        <v>57745900000</v>
+        <v>57320738860</v>
       </c>
       <c r="P20" s="43"/>
       <c r="Q20" s="43"/>
@@ -14951,7 +14955,7 @@
       </c>
       <c r="O21" s="92">
         <f>O19+O20</f>
-        <v>64412000000</v>
+        <v>63986838860</v>
       </c>
       <c r="P21" s="43"/>
       <c r="Q21" s="43"/>
@@ -14979,7 +14983,7 @@
       </c>
       <c r="O22" s="94">
         <f>(O19/O21)</f>
-        <v>0.10349158541886605</v>
+        <v>0.10417923621113856</v>
       </c>
       <c r="P22" s="43"/>
       <c r="Q22" s="43"/>
@@ -15004,7 +15008,7 @@
       </c>
       <c r="O23" s="95">
         <f>O20/O21</f>
-        <v>0.89650841458113395</v>
+        <v>0.89582076378886144</v>
       </c>
       <c r="P23" s="43"/>
       <c r="Q23" s="43"/>
@@ -15048,7 +15052,7 @@
       <c r="M25" s="62"/>
       <c r="N25" s="114">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.956406538622555E-2</v>
+        <v>8.9953931058877779E-2</v>
       </c>
       <c r="O25" s="115"/>
       <c r="P25" s="43"/>
